--- a/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008708</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -868,64 +728,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -571,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -609,32 +626,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -652,27 +669,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -690,27 +707,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）美元现汇 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -723,6 +740,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/GB00BP6MXD84-壳牌公共有限公司.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -588,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇 A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -626,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -674,22 +691,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -712,22 +729,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -796,32 +813,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -834,32 +851,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -877,27 +894,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -915,27 +932,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）美元现汇 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -948,6 +965,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
